--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
@@ -217,7 +217,7 @@
     <t xml:space="preserve">Auto_CD007</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">1999</t>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
@@ -214,7 +214,7 @@
     <t xml:space="preserve">streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">Auto_CD007</t>
+    <t xml:space="preserve">Auto_CssD007</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-01</t>
@@ -385,7 +385,7 @@
   <dimension ref="A1:BM1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56F3009-FBDB-4B62-8212-8DC2B734ED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F60A333-18C8-4485-8338-87A39478C97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F60A333-18C8-4485-8338-87A39478C97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF971F-843B-4AE5-839D-729FB768C967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF971F-843B-4AE5-839D-729FB768C967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145FD65-1711-4779-96AA-02F887D1A19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>contractNo</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="A1:BS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +914,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>66</v>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145FD65-1711-4779-96AA-02F887D1A19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9FF10-5EAC-4A29-A812-24DCA2ABBADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -908,13 +908,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>66</v>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC20DCBB-3088-41F4-988F-0E8B2A410C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061D804D-7956-47E3-9C4C-729E2AD622A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="3225" windowHeight="2925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -273,7 +273,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061D804D-7956-47E3-9C4C-729E2AD622A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D6F930-526E-48A2-A887-81F4AE79D270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -337,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,7 +377,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -483,7 +483,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -625,7 +625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A98A114-2A0C-4967-B858-C57835B12BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7D4399-7E70-46FA-B908-0956D5B2F5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -273,7 +273,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -337,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,7 +377,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -483,7 +483,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -625,7 +625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -637,7 +637,7 @@
   <dimension ref="A1:BS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7D4399-7E70-46FA-B908-0956D5B2F5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D6067-82AE-4FBF-BEC7-F0CED89DAF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>contractNo</t>
   </si>
@@ -273,7 +273,13 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -636,8 +642,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2:BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +914,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>65</v>
@@ -990,6 +996,12 @@
       </c>
       <c r="AZ2" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>80</v>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D6067-82AE-4FBF-BEC7-F0CED89DAF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EE5A12-C2A5-48CA-9F45-3BA05568820A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BB2" sqref="BB2:BC2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
